--- a/results/cifar10_training/results_naive_fine-tuning_cifar10.xlsx
+++ b/results/cifar10_training/results_naive_fine-tuning_cifar10.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="naive_after_task1" sheetId="1" r:id="rId1"/>
-    <sheet name="naive_after_task2" sheetId="2" r:id="rId2"/>
+    <sheet name="fine-tuning_after_task1" sheetId="1" r:id="rId1"/>
+    <sheet name="fine-tuning_after_task2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.266295210132754</v>
+        <v>1.264031383080211</v>
       </c>
       <c r="D3">
-        <v>0.9881558219591776</v>
+        <v>0.9862069686253866</v>
       </c>
       <c r="E3">
-        <v>30.86</v>
+        <v>31.01</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.004857291829586029</v>
+        <v>0.004804279601573944</v>
       </c>
       <c r="J3">
-        <v>61.72</v>
+        <v>62.02</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9144200576030141</v>
+        <v>0.9141097432229577</v>
       </c>
       <c r="D4">
-        <v>0.8038732806841532</v>
+        <v>0.8021268645922343</v>
       </c>
       <c r="E4">
-        <v>33.45</v>
+        <v>33.32</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.06418834915161133</v>
+        <v>0.06694394588470459</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.810686790361637</v>
+        <v>0.8105768415986038</v>
       </c>
       <c r="D5">
-        <v>0.7798102498054504</v>
+        <v>0.7904108166694641</v>
       </c>
       <c r="E5">
-        <v>32.88</v>
+        <v>32.98</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.004259257388114929</v>
+        <v>0.004227957594394684</v>
       </c>
       <c r="J5">
-        <v>66.90000000000001</v>
+        <v>66.64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.738293484943669</v>
+        <v>0.7416072027470039</v>
       </c>
       <c r="D6">
-        <v>0.6835218071937561</v>
+        <v>0.6938801209131876</v>
       </c>
       <c r="E6">
-        <v>36.29</v>
+        <v>35.82</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.06385611972808838</v>
+        <v>0.06506270599365234</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.6560811933463182</v>
+        <v>0.6570189440153479</v>
       </c>
       <c r="D7">
-        <v>0.6641083161036173</v>
+        <v>0.6773013472557068</v>
       </c>
       <c r="E7">
-        <v>36.26</v>
+        <v>35.66</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.004211326515674591</v>
+        <v>0.004235652709007263</v>
       </c>
       <c r="J7">
-        <v>65.76000000000001</v>
+        <v>65.95999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.602945638623664</v>
+        <v>0.6016882861532816</v>
       </c>
       <c r="D8">
-        <v>0.6117816964785258</v>
+        <v>0.6427200237909952</v>
       </c>
       <c r="E8">
-        <v>37.85</v>
+        <v>36.77</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.06227676906585693</v>
+        <v>0.06337765502929688</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5499215242339344</v>
+        <v>0.5460977573704914</v>
       </c>
       <c r="D9">
-        <v>0.5637602607409159</v>
+        <v>0.5970830718676249</v>
       </c>
       <c r="E9">
-        <v>38.73</v>
+        <v>38.32</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.003535353147983551</v>
+        <v>0.003572340989112854</v>
       </c>
       <c r="J9">
-        <v>72.58</v>
+        <v>71.64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5054998913916146</v>
+        <v>0.4993494681226529</v>
       </c>
       <c r="D10">
-        <v>0.5905073285102844</v>
+        <v>0.6210076212882996</v>
       </c>
       <c r="E10">
-        <v>38.31</v>
+        <v>37.76</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.07173072414398193</v>
+        <v>0.06981101684570312</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.468116724151906</v>
+        <v>0.4698902860404999</v>
       </c>
       <c r="D11">
-        <v>0.5062312881151835</v>
+        <v>0.5270380278428396</v>
       </c>
       <c r="E11">
-        <v>39.32</v>
+        <v>39.17</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.003493613600730896</v>
+        <v>0.003546010065078735</v>
       </c>
       <c r="J11">
-        <v>72.52</v>
+        <v>71.31999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4227061647225202</v>
+        <v>0.4226050071600007</v>
       </c>
       <c r="D12">
-        <v>0.5698040127754211</v>
+        <v>0.5849876801172892</v>
       </c>
       <c r="E12">
-        <v>39.28</v>
+        <v>39.26</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.06513934612274169</v>
+        <v>0.06504948444366455</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.3857220239270993</v>
+        <v>0.3843546405555756</v>
       </c>
       <c r="D13">
-        <v>0.5214141408602396</v>
+        <v>0.4998660782972972</v>
       </c>
       <c r="E13">
-        <v>39.81</v>
+        <v>40.15</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.003199431037902832</v>
+        <v>0.00334288170337677</v>
       </c>
       <c r="J13">
-        <v>75.7</v>
+        <v>73.54000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3494500145921862</v>
+        <v>0.3541535754513934</v>
       </c>
       <c r="D14">
-        <v>0.5922152400016785</v>
+        <v>0.6020570993423462</v>
       </c>
       <c r="E14">
-        <v>38.78</v>
+        <v>38.63</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.07121672592163086</v>
+        <v>0.06944856986999512</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3242342754350445</v>
+        <v>0.3270213275663252</v>
       </c>
       <c r="D15">
-        <v>0.5466004212697347</v>
+        <v>0.5037905474503835</v>
       </c>
       <c r="E15">
-        <v>39.55</v>
+        <v>40.07</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.003019041585922241</v>
+        <v>0.003123177659511566</v>
       </c>
       <c r="J15">
-        <v>77.45999999999999</v>
+        <v>76.64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2950693652397249</v>
+        <v>0.293431387199619</v>
       </c>
       <c r="D16">
-        <v>0.523247241973877</v>
+        <v>0.5348748962084452</v>
       </c>
       <c r="E16">
-        <v>39.9</v>
+        <v>39.86</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.07444564781188964</v>
+        <v>0.0768684741973877</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.3813359708320804</v>
+        <v>0.2568448732296626</v>
       </c>
       <c r="D17">
-        <v>0.5405304233233134</v>
+        <v>0.5522803366184235</v>
       </c>
       <c r="E17">
-        <v>40.02</v>
+        <v>40.51</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.00303343141078949</v>
+        <v>0.00317019567489624</v>
       </c>
       <c r="J17">
-        <v>76.62</v>
+        <v>75.52</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.3632088446520209</v>
+        <v>0.2336998836296361</v>
       </c>
       <c r="D18">
-        <v>0.5680482188860575</v>
+        <v>0.6387584110101064</v>
       </c>
       <c r="E18">
-        <v>39.96</v>
+        <v>40.22</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.07129802589416503</v>
+        <v>0.07533558979034424</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.3498852359570139</v>
+        <v>0.2985452085248823</v>
       </c>
       <c r="D19">
-        <v>0.5405480265617371</v>
+        <v>0.5251148641109467</v>
       </c>
       <c r="E19">
-        <v>39.92</v>
+        <v>40.34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.002825450164079666</v>
+        <v>0.002863339185714722</v>
       </c>
       <c r="J19">
-        <v>78.64</v>
+        <v>78.34</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.3387950185110898</v>
+        <v>0.2811145876965871</v>
       </c>
       <c r="D20">
-        <v>0.5568217436472574</v>
+        <v>0.5552221437295278</v>
       </c>
       <c r="E20">
-        <v>40.1</v>
+        <v>40.52</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.07099007263183593</v>
+        <v>0.07428837471008301</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.3266358717185695</v>
+        <v>0.2709175546964009</v>
       </c>
       <c r="D21">
-        <v>0.5300195117791494</v>
+        <v>0.534974733988444</v>
       </c>
       <c r="E21">
-        <v>40.11</v>
+        <v>40.34</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.002974049645662308</v>
+        <v>0.0030239776968956</v>
       </c>
       <c r="J21">
-        <v>78.56</v>
+        <v>78.52</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.3823467459135909</v>
+        <v>0.2586051248680286</v>
       </c>
       <c r="D22">
-        <v>0.5392758448918661</v>
+        <v>0.5581443707148234</v>
       </c>
       <c r="E22">
-        <v>39.88</v>
+        <v>40.44</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.07981597976684571</v>
+        <v>0.07605255317687988</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.3686501921677008</v>
+        <v>0.2480070216626656</v>
       </c>
       <c r="D23">
-        <v>0.4925498366355896</v>
+        <v>0.504661758740743</v>
       </c>
       <c r="E23">
-        <v>39.94</v>
+        <v>40.38</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.002793686348199844</v>
+        <v>0.002709160381555557</v>
       </c>
       <c r="J23">
-        <v>79.62</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.3615541779171161</v>
+        <v>0.3009791843047956</v>
       </c>
       <c r="D24">
-        <v>0.5428269505500793</v>
+        <v>0.5457415481408437</v>
       </c>
       <c r="E24">
-        <v>40.12</v>
+        <v>40.48</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.08323679962158204</v>
+        <v>0.08242528762817383</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.3568260524331069</v>
+        <v>0.2875706313586817</v>
       </c>
       <c r="D25">
-        <v>0.5036713679631551</v>
+        <v>0.4954246779282888</v>
       </c>
       <c r="E25">
-        <v>40.13</v>
+        <v>40.53</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.003218706929683686</v>
+        <v>0.003115508449077606</v>
       </c>
       <c r="J25">
-        <v>77.56</v>
+        <v>77.26000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.3522598508412276</v>
+        <v>0.2807958053379524</v>
       </c>
       <c r="D26">
-        <v>0.52927698691686</v>
+        <v>0.514543205499649</v>
       </c>
       <c r="E26">
-        <v>40.4</v>
+        <v>40.61</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.08381927299499511</v>
+        <v>0.07623566722869873</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.3480790073309488</v>
+        <v>0.2757106818319336</v>
       </c>
       <c r="D27">
-        <v>0.4945721725622813</v>
+        <v>0.4985597133636475</v>
       </c>
       <c r="E27">
-        <v>40.32</v>
+        <v>40.51</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.002932948040962219</v>
+        <v>0.002818477171659469</v>
       </c>
       <c r="J27">
-        <v>79.09999999999999</v>
+        <v>80.14</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.3448313976206431</v>
+        <v>0.2723002136965108</v>
       </c>
       <c r="D28">
-        <v>0.5029404064019521</v>
+        <v>0.4980845053990682</v>
       </c>
       <c r="E28">
-        <v>40.34</v>
+        <v>40.63</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.08778007087707519</v>
+        <v>0.09247597427368164</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.361108473403667</v>
+        <v>0.2685578207417232</v>
       </c>
       <c r="D29">
-        <v>0.5253216822942098</v>
+        <v>0.5210843086242676</v>
       </c>
       <c r="E29">
-        <v>40.07</v>
+        <v>40.66</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.002878135305643082</v>
+        <v>0.002958451980352402</v>
       </c>
       <c r="J29">
-        <v>79.8</v>
+        <v>79.72</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.3600125284941216</v>
+        <v>0.2654757124137103</v>
       </c>
       <c r="D30">
-        <v>0.5097133715947469</v>
+        <v>0.5003526210784912</v>
       </c>
       <c r="E30">
-        <v>40.09</v>
+        <v>40.69</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.08316677856445312</v>
+        <v>0.08294815063476563</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.3584117000180531</v>
+        <v>0.2805736160617534</v>
       </c>
       <c r="D31">
-        <v>0.5079304277896881</v>
+        <v>0.5026381413141886</v>
       </c>
       <c r="E31">
-        <v>40.21</v>
+        <v>40.49</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.002763711589574814</v>
+        <v>0.002849150407314301</v>
       </c>
       <c r="J31">
-        <v>80.04000000000001</v>
+        <v>81.02</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.3571307122465072</v>
+        <v>0.2787023076439292</v>
       </c>
       <c r="D32">
-        <v>0.5628215471903483</v>
+        <v>0.565849095582962</v>
       </c>
       <c r="E32">
-        <v>40.12</v>
+        <v>40.48</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.08404161643981933</v>
+        <v>0.08859089584350587</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.3556612929919871</v>
+        <v>0.2773658940947153</v>
       </c>
       <c r="D33">
-        <v>0.5548643171787262</v>
+        <v>0.571546216805776</v>
       </c>
       <c r="E33">
-        <v>40.14</v>
+        <v>40.55</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.002793174302577972</v>
+        <v>0.002985462522506714</v>
       </c>
       <c r="J33">
-        <v>79.92</v>
+        <v>80.44</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.3608844636417017</v>
+        <v>0.276039386789004</v>
       </c>
       <c r="D34">
-        <v>0.5088305373986562</v>
+        <v>0.5052777628103892</v>
       </c>
       <c r="E34">
-        <v>39.99</v>
+        <v>40.57</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.088617333984375</v>
+        <v>0.0915194278717041</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.3608388359226832</v>
+        <v>0.2750800884351497</v>
       </c>
       <c r="D35">
-        <v>0.5282158851623535</v>
+        <v>0.5390877425670624</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>40.56</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.002772109228372574</v>
+        <v>0.002714445090293884</v>
       </c>
       <c r="J35">
-        <v>79.84</v>
+        <v>80.68000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.3604414310397172</v>
+        <v>0.2814000286464769</v>
       </c>
       <c r="D36">
-        <v>0.5005562206109365</v>
+        <v>0.5024678011735281</v>
       </c>
       <c r="E36">
-        <v>40.03</v>
+        <v>40.59</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.09124087486267089</v>
+        <v>0.09356613159179687</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.3601884881897671</v>
+        <v>0.2800649679530927</v>
       </c>
       <c r="D37">
-        <v>0.5135923226674398</v>
+        <v>0.500894566377004</v>
       </c>
       <c r="E37">
-        <v>40.04</v>
+        <v>40.47</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.002750718104839325</v>
+        <v>0.002709146100282669</v>
       </c>
       <c r="J37">
-        <v>80.2</v>
+        <v>81.04000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.3595499223083015</v>
+        <v>0.2792846503538814</v>
       </c>
       <c r="D38">
-        <v>0.5055721799532572</v>
+        <v>0.5137207011381785</v>
       </c>
       <c r="E38">
-        <v>40.07</v>
+        <v>40.47</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1494,13 +1494,28 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.09088640251159667</v>
+        <v>0.09665881614685058</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0.2790111730980679</v>
+      </c>
+      <c r="D39">
+        <v>0.5234581430753072</v>
+      </c>
+      <c r="E39">
+        <v>40.46</v>
+      </c>
       <c r="G39">
         <v>1</v>
       </c>
@@ -1508,13 +1523,28 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.002767218041419983</v>
+        <v>0.002751628661155701</v>
       </c>
       <c r="J39">
-        <v>80.22</v>
+        <v>80.68000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:10">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.2784691583819506</v>
+      </c>
+      <c r="D40">
+        <v>0.5088046193122864</v>
+      </c>
+      <c r="E40">
+        <v>40.5</v>
+      </c>
       <c r="G40">
         <v>2</v>
       </c>
@@ -1522,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.09017108116149902</v>
+        <v>0.09608123245239258</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1536,10 +1566,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.002746883326768875</v>
+        <v>0.002789739334583282</v>
       </c>
       <c r="J41">
-        <v>79.76000000000001</v>
+        <v>80.88</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1550,7 +1580,7 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.08131950778961182</v>
+        <v>0.09692045211791993</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1564,10 +1594,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.002742657560110092</v>
+        <v>0.002841895204782486</v>
       </c>
       <c r="J43">
-        <v>79.88</v>
+        <v>80.76000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1578,7 +1608,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.08402557334899903</v>
+        <v>0.09883966979980469</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1592,10 +1622,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.002733059626817703</v>
+        <v>0.002668546754121781</v>
       </c>
       <c r="J45">
-        <v>80.23999999999999</v>
+        <v>80.95999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1606,7 +1636,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.08610886421203613</v>
+        <v>0.08895826835632324</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1620,10 +1650,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.002745562309026718</v>
+        <v>0.002679791152477264</v>
       </c>
       <c r="J47">
-        <v>80.26000000000001</v>
+        <v>81.06</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1634,7 +1664,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.08845454177856445</v>
+        <v>0.09200473823547363</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1648,10 +1678,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.002744141507148743</v>
+        <v>0.002681306105852127</v>
       </c>
       <c r="J49">
-        <v>80.8</v>
+        <v>81.22</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1662,7 +1692,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.08948863525390625</v>
+        <v>0.09354317436218262</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1676,10 +1706,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.002740907335281372</v>
+        <v>0.00269854154586792</v>
       </c>
       <c r="J51">
-        <v>80.64</v>
+        <v>81.02</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1690,7 +1720,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.08994209976196289</v>
+        <v>0.09548451919555664</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1704,10 +1734,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.002733703649044037</v>
+        <v>0.002691549068689346</v>
       </c>
       <c r="J53">
-        <v>80.68000000000001</v>
+        <v>81.26000000000001</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1718,7 +1748,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.08980988235473633</v>
+        <v>0.09601106948852539</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1732,10 +1762,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.002740114736557007</v>
+        <v>0.002697101891040802</v>
       </c>
       <c r="J55">
-        <v>80.14</v>
+        <v>81.31999999999999</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1746,7 +1776,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.08492405319213867</v>
+        <v>0.09689839324951172</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -1760,10 +1790,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.002734507197141647</v>
+        <v>0.002704360342025757</v>
       </c>
       <c r="J57">
-        <v>80.18000000000001</v>
+        <v>81.38</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1774,7 +1804,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.08559508399963379</v>
+        <v>0.09761460876464843</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -1788,10 +1818,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.00273827908039093</v>
+        <v>0.002675490134954453</v>
       </c>
       <c r="J59">
-        <v>80.42</v>
+        <v>80.98</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1802,7 +1832,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.08602238998413086</v>
+        <v>0.09218523788452149</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -1816,10 +1846,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.002738156753778457</v>
+        <v>0.002678860229253769</v>
       </c>
       <c r="J61">
-        <v>80.23999999999999</v>
+        <v>80.95999999999999</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1830,7 +1860,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.08625166664123535</v>
+        <v>0.0923809757232666</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -1844,10 +1874,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.002734946495294571</v>
+        <v>0.002675316381454468</v>
       </c>
       <c r="J63">
-        <v>80.28</v>
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1858,7 +1888,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.0867882755279541</v>
+        <v>0.09309297828674316</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -1872,10 +1902,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.002736989748477936</v>
+        <v>0.002677659171819687</v>
       </c>
       <c r="J65">
-        <v>79.98</v>
+        <v>81.14</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1886,7 +1916,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.08436877937316895</v>
+        <v>0.0936563549041748</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -1900,10 +1930,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.002736300265789032</v>
+        <v>0.002678387838602066</v>
       </c>
       <c r="J67">
-        <v>80</v>
+        <v>81.12</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -1914,7 +1944,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.08457364616394043</v>
+        <v>0.09388059844970703</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -1928,10 +1958,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.0027364237844944</v>
+        <v>0.002672942471504211</v>
       </c>
       <c r="J69">
-        <v>80.06</v>
+        <v>81.18000000000001</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -1942,7 +1972,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.08472377090454102</v>
+        <v>0.09202191886901856</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -1956,10 +1986,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.002736269772052765</v>
+        <v>0.002672887641191482</v>
       </c>
       <c r="J71">
-        <v>80.08</v>
+        <v>80.94</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -1970,7 +2000,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.08489263877868652</v>
+        <v>0.09209392280578613</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -1984,10 +2014,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.00273613715171814</v>
+        <v>0.002672677141427994</v>
       </c>
       <c r="J73">
-        <v>80.14</v>
+        <v>80.94</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -1998,9 +2028,65 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.08500717735290528</v>
+        <v>0.09208789138793945</v>
       </c>
       <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>37</v>
+      </c>
+      <c r="I75">
+        <v>0.002673305803537369</v>
+      </c>
+      <c r="J75">
+        <v>80.92</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>37</v>
+      </c>
+      <c r="I76">
+        <v>0.09215605163574218</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>38</v>
+      </c>
+      <c r="I77">
+        <v>0.002673074942827225</v>
+      </c>
+      <c r="J77">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>38</v>
+      </c>
+      <c r="I78">
+        <v>0.09224949913024902</v>
+      </c>
+      <c r="J78">
         <v>0</v>
       </c>
     </row>
@@ -2015,7 +2101,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2074,13 +2160,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.829618201023195</v>
+        <v>1.787465828221019</v>
       </c>
       <c r="D3">
-        <v>1.167492707570394</v>
+        <v>1.020069122314453</v>
       </c>
       <c r="E3">
-        <v>25.92</v>
+        <v>30.87</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2089,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.07968949489593506</v>
+        <v>0.08895855598449708</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2103,13 +2189,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9833861574894045</v>
+        <v>0.8244108296022182</v>
       </c>
       <c r="D4">
-        <v>0.8195229371388754</v>
+        <v>0.782524307568868</v>
       </c>
       <c r="E4">
-        <v>35.2</v>
+        <v>35.74</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2118,10 +2204,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.005816163420677185</v>
+        <v>0.005034936940670014</v>
       </c>
       <c r="J4">
-        <v>51.84</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2132,13 +2218,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7154307132813988</v>
+        <v>0.6626712900351702</v>
       </c>
       <c r="D5">
-        <v>0.7922801176706949</v>
+        <v>0.6344175140062968</v>
       </c>
       <c r="E5">
-        <v>36.05</v>
+        <v>38.95</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2147,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.08326248455047608</v>
+        <v>0.0754263650894165</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2161,13 +2247,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6245535437653704</v>
+        <v>0.5435433840848566</v>
       </c>
       <c r="D6">
-        <v>0.6058404246966044</v>
+        <v>0.5530131856600443</v>
       </c>
       <c r="E6">
-        <v>39.24</v>
+        <v>40.45</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2176,10 +2262,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.003958520364761352</v>
+        <v>0.00375148069858551</v>
       </c>
       <c r="J6">
-        <v>70.40000000000001</v>
+        <v>71.48</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2190,13 +2276,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.5563018334105732</v>
+        <v>0.4759673408376492</v>
       </c>
       <c r="D7">
-        <v>0.573368767897288</v>
+        <v>0.5166441301504771</v>
       </c>
       <c r="E7">
-        <v>39.95</v>
+        <v>41.06</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2205,7 +2291,7 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.08647091789245605</v>
+        <v>0.06651830310821533</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2219,13 +2305,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.494699105014646</v>
+        <v>0.4398718888197488</v>
       </c>
       <c r="D8">
-        <v>0.5469059546788534</v>
+        <v>0.4621931711832682</v>
       </c>
       <c r="E8">
-        <v>41.36</v>
+        <v>41.5</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2234,10 +2320,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.003785394930839539</v>
+        <v>0.002986872965097428</v>
       </c>
       <c r="J8">
-        <v>72.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2248,13 +2334,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.4499604866756656</v>
+        <v>0.3921783152149945</v>
       </c>
       <c r="D9">
-        <v>0.4934899310270945</v>
+        <v>0.4180447359879811</v>
       </c>
       <c r="E9">
-        <v>41.78</v>
+        <v>42.47</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2263,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.07106137943267822</v>
+        <v>0.06525316638946534</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2277,13 +2363,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4255250181124463</v>
+        <v>0.3632010364435553</v>
       </c>
       <c r="D10">
-        <v>0.480555643637975</v>
+        <v>0.3951504031817119</v>
       </c>
       <c r="E10">
-        <v>41.1</v>
+        <v>43.18</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2292,10 +2378,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.002901969569921494</v>
+        <v>0.002565185141563416</v>
       </c>
       <c r="J10">
-        <v>78.48</v>
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2306,13 +2392,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.3925728604076354</v>
+        <v>0.3431607131066361</v>
       </c>
       <c r="D11">
-        <v>0.4527884423732758</v>
+        <v>0.3986260493596395</v>
       </c>
       <c r="E11">
-        <v>42.36</v>
+        <v>42.57</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2321,7 +2407,7 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.07106204795837402</v>
+        <v>0.06841923522949218</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2335,13 +2421,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.3670638355055476</v>
+        <v>0.3159508906244262</v>
       </c>
       <c r="D12">
-        <v>0.4192988673845927</v>
+        <v>0.3688733478387197</v>
       </c>
       <c r="E12">
-        <v>42.66</v>
+        <v>43.41</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2350,10 +2436,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.00271342054605484</v>
+        <v>0.002447218883037567</v>
       </c>
       <c r="J12">
-        <v>79.90000000000001</v>
+        <v>82.12</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2364,13 +2450,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.3371360350430496</v>
+        <v>0.281658897676119</v>
       </c>
       <c r="D13">
-        <v>0.4341362516085307</v>
+        <v>0.3918160100777944</v>
       </c>
       <c r="E13">
-        <v>42.03</v>
+        <v>43.06</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2379,7 +2465,7 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.07164584827423096</v>
+        <v>0.06239436492919922</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2393,13 +2479,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3266787492647404</v>
+        <v>0.2720843491757788</v>
       </c>
       <c r="D14">
-        <v>0.3886795043945312</v>
+        <v>0.4358364840348561</v>
       </c>
       <c r="E14">
-        <v>43.18</v>
+        <v>41.86</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2408,10 +2494,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.002421296197175979</v>
+        <v>0.002352498203516006</v>
       </c>
       <c r="J14">
-        <v>82.72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2422,13 +2508,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.2959686001626456</v>
+        <v>0.2508827741068553</v>
       </c>
       <c r="D15">
-        <v>0.3875191509723663</v>
+        <v>0.4100357890129089</v>
       </c>
       <c r="E15">
-        <v>43.23</v>
+        <v>42.71</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2437,7 +2523,7 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.07393044509887696</v>
+        <v>0.06508699779510498</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2451,13 +2537,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2850680505114842</v>
+        <v>0.2201189220678516</v>
       </c>
       <c r="D16">
-        <v>0.37399822473526</v>
+        <v>0.3316800097624461</v>
       </c>
       <c r="E16">
-        <v>42.96</v>
+        <v>43.56</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2466,10 +2552,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.002240485846996307</v>
+        <v>0.002099947953224182</v>
       </c>
       <c r="J16">
-        <v>83.56</v>
+        <v>84.94</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2480,13 +2566,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.2714547814150167</v>
+        <v>0.2035297516400252</v>
       </c>
       <c r="D17">
-        <v>0.4184886713822683</v>
+        <v>0.3432550728321075</v>
       </c>
       <c r="E17">
-        <v>42.96</v>
+        <v>43.59</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2495,7 +2581,7 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.07174957084655761</v>
+        <v>0.06068718910217285</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2509,13 +2595,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.2461863896711086</v>
+        <v>0.1786851846590275</v>
       </c>
       <c r="D18">
-        <v>0.3577034771442413</v>
+        <v>0.346887469291687</v>
       </c>
       <c r="E18">
-        <v>43.5</v>
+        <v>43.71</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2524,10 +2610,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.002427731472253799</v>
+        <v>0.001943827348947525</v>
       </c>
       <c r="J18">
-        <v>82.2</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2538,13 +2624,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.226667750778237</v>
+        <v>0.1627904268178513</v>
       </c>
       <c r="D19">
-        <v>0.4391822020212809</v>
+        <v>0.3881499071915944</v>
       </c>
       <c r="E19">
-        <v>42.84</v>
+        <v>43.31</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2553,7 +2639,7 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.07126822700500489</v>
+        <v>0.06382847061157226</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2567,13 +2653,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.226813139469643</v>
+        <v>0.1478535991495218</v>
       </c>
       <c r="D20">
-        <v>0.3637906809647878</v>
+        <v>0.3856613238652547</v>
       </c>
       <c r="E20">
-        <v>43.51</v>
+        <v>43.7</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2582,10 +2668,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.002145129019021988</v>
+        <v>0.002101287418603897</v>
       </c>
       <c r="J20">
-        <v>84.72</v>
+        <v>85.14</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2596,13 +2682,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.2033032929994227</v>
+        <v>0.1278394294705817</v>
       </c>
       <c r="D21">
-        <v>0.3618018925189972</v>
+        <v>0.3864434063434601</v>
       </c>
       <c r="E21">
-        <v>43.71</v>
+        <v>43.74</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2611,7 +2697,7 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.06822271804809571</v>
+        <v>0.06329867992401123</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2625,13 +2711,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.1912164766250587</v>
+        <v>0.1697706119195233</v>
       </c>
       <c r="D22">
-        <v>0.3976131280263265</v>
+        <v>0.3317464093367259</v>
       </c>
       <c r="E22">
-        <v>43.34</v>
+        <v>43.86</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2640,10 +2726,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.00205834903717041</v>
+        <v>0.001903688740730286</v>
       </c>
       <c r="J22">
-        <v>85.31999999999999</v>
+        <v>86.81999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2654,13 +2740,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.1842695593349333</v>
+        <v>0.1607664803542742</v>
       </c>
       <c r="D23">
-        <v>0.4011952181657155</v>
+        <v>0.3369602560997009</v>
       </c>
       <c r="E23">
-        <v>43.08</v>
+        <v>43.83</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2669,7 +2755,7 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.07313223876953125</v>
+        <v>0.06941759796142578</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2683,13 +2769,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.2031012246521508</v>
+        <v>0.15538224977691</v>
       </c>
       <c r="D24">
-        <v>0.3451923529307048</v>
+        <v>0.3490102688471476</v>
       </c>
       <c r="E24">
-        <v>43.86</v>
+        <v>43.9</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2698,10 +2784,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.002230481177568436</v>
+        <v>0.001960600996017456</v>
       </c>
       <c r="J24">
-        <v>84.06</v>
+        <v>86.12</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2712,13 +2798,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1948404925140908</v>
+        <v>0.1515292948096748</v>
       </c>
       <c r="D25">
-        <v>0.3475600481033325</v>
+        <v>0.3511011004447937</v>
       </c>
       <c r="E25">
-        <v>43.92</v>
+        <v>43.88</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2727,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.06903696041107178</v>
+        <v>0.06665879001617432</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2741,13 +2827,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.1895396048581697</v>
+        <v>0.1460120820296489</v>
       </c>
       <c r="D26">
-        <v>0.3592922985553741</v>
+        <v>0.3490530947844188</v>
       </c>
       <c r="E26">
-        <v>43.83</v>
+        <v>43.87</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2756,10 +2842,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.001903444051742554</v>
+        <v>0.002352727788686752</v>
       </c>
       <c r="J26">
-        <v>86.36</v>
+        <v>83.72</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2770,13 +2856,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.1883126234378272</v>
+        <v>0.1686771367260111</v>
       </c>
       <c r="D27">
-        <v>0.370805154244105</v>
+        <v>0.3182429571946462</v>
       </c>
       <c r="E27">
-        <v>43.82</v>
+        <v>43.96</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2785,7 +2871,7 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.07369791450500489</v>
+        <v>0.06972473163604737</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2799,13 +2885,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.1822144246804036</v>
+        <v>0.1616187368830045</v>
       </c>
       <c r="D28">
-        <v>0.3430297672748566</v>
+        <v>0.3304840723673503</v>
       </c>
       <c r="E28">
-        <v>43.89</v>
+        <v>44.04</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2814,10 +2900,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.001890356284379959</v>
+        <v>0.002082195448875427</v>
       </c>
       <c r="J28">
-        <v>86.45999999999999</v>
+        <v>85.42</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2828,13 +2914,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.1775673732646113</v>
+        <v>0.1586992133681367</v>
       </c>
       <c r="D29">
-        <v>0.3501277665297191</v>
+        <v>0.3506639500459035</v>
       </c>
       <c r="E29">
-        <v>43.52</v>
+        <v>43.95</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2843,7 +2929,7 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.07461223258972167</v>
+        <v>0.07185669174194335</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2857,13 +2943,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.1736881010900668</v>
+        <v>0.1567250137648931</v>
       </c>
       <c r="D30">
-        <v>0.3647360503673553</v>
+        <v>0.3368043104807536</v>
       </c>
       <c r="E30">
-        <v>43.84</v>
+        <v>43.96</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2872,10 +2958,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.00200907564163208</v>
+        <v>0.001833134877681732</v>
       </c>
       <c r="J30">
-        <v>85.92</v>
+        <v>87.12</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2886,13 +2972,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.1679372388294073</v>
+        <v>0.1542779642149685</v>
       </c>
       <c r="D31">
-        <v>0.3877142866452535</v>
+        <v>0.3195921331644058</v>
       </c>
       <c r="E31">
-        <v>43.93</v>
+        <v>43.95</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2901,7 +2987,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.06732168254852294</v>
+        <v>0.07290167217254638</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2915,13 +3001,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.1674975540822115</v>
+        <v>0.1528417037996819</v>
       </c>
       <c r="D32">
-        <v>0.3599587877591451</v>
+        <v>0.324500098824501</v>
       </c>
       <c r="E32">
-        <v>43.92</v>
+        <v>43.94</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2930,10 +3016,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.001994589710235596</v>
+        <v>0.001848506015539169</v>
       </c>
       <c r="J32">
-        <v>85.92</v>
+        <v>87.18000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2944,13 +3030,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.1604444379123246</v>
+        <v>0.1622724548224511</v>
       </c>
       <c r="D33">
-        <v>0.3372620642185211</v>
+        <v>0.340887909134229</v>
       </c>
       <c r="E33">
-        <v>43.99</v>
+        <v>43.91</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2959,7 +3045,7 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.0718188627243042</v>
+        <v>0.07135028247833251</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2973,13 +3059,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.1578894730627052</v>
+        <v>0.1604860271137904</v>
       </c>
       <c r="D34">
-        <v>0.3472362160682678</v>
+        <v>0.3298164804776509</v>
       </c>
       <c r="E34">
-        <v>43.91</v>
+        <v>43.95</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2988,10 +3074,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.00185334577858448</v>
+        <v>0.001877880576252937</v>
       </c>
       <c r="J34">
-        <v>87</v>
+        <v>87.42</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3002,13 +3088,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.152436876200079</v>
+        <v>0.1599063704895779</v>
       </c>
       <c r="D35">
-        <v>0.3782587895790736</v>
+        <v>0.3426364958286285</v>
       </c>
       <c r="E35">
-        <v>43.8</v>
+        <v>43.98</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3017,7 +3103,7 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.07684637660980224</v>
+        <v>0.07847639827728271</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3031,13 +3117,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.1495163994954853</v>
+        <v>0.1590194883264177</v>
       </c>
       <c r="D36">
-        <v>0.3516319195429484</v>
+        <v>0.3375266790390015</v>
       </c>
       <c r="E36">
-        <v>43.84</v>
+        <v>44.01</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3046,10 +3132,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.002115648454427719</v>
+        <v>0.002086113965511322</v>
       </c>
       <c r="J36">
-        <v>85.68000000000001</v>
+        <v>86.62</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3060,13 +3146,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.143979293180675</v>
+        <v>0.158608868112409</v>
       </c>
       <c r="D37">
-        <v>0.3813293278217316</v>
+        <v>0.3176367084185283</v>
       </c>
       <c r="E37">
-        <v>43.86</v>
+        <v>43.98</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3075,7 +3161,7 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.0731008840560913</v>
+        <v>0.08304902095794678</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3089,13 +3175,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.1403083552916845</v>
+        <v>0.1572870456772607</v>
       </c>
       <c r="D38">
-        <v>0.363260289033254</v>
+        <v>0.3420560956001282</v>
       </c>
       <c r="E38">
-        <v>43.77</v>
+        <v>43.94</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3104,10 +3190,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.00178678268790245</v>
+        <v>0.001946006163954735</v>
       </c>
       <c r="J38">
-        <v>87.02</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3118,13 +3204,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.1491864085560892</v>
+        <v>0.156884876450872</v>
       </c>
       <c r="D39">
-        <v>0.3436027268568675</v>
+        <v>0.3317221105098724</v>
       </c>
       <c r="E39">
-        <v>43.92</v>
+        <v>43.96</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3133,7 +3219,7 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.07520220565795899</v>
+        <v>0.08035963573455811</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3147,13 +3233,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.1478167792282453</v>
+        <v>0.1564573750384455</v>
       </c>
       <c r="D40">
-        <v>0.3469886481761932</v>
+        <v>0.329576164484024</v>
       </c>
       <c r="E40">
-        <v>44.06</v>
+        <v>43.96</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3162,10 +3248,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.001884258705377579</v>
+        <v>0.002015861484408379</v>
       </c>
       <c r="J40">
-        <v>87.42</v>
+        <v>87.48</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3176,13 +3262,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.1464396871444656</v>
+        <v>0.1559158881626478</v>
       </c>
       <c r="D41">
-        <v>0.3449202577273051</v>
+        <v>0.3378338813781738</v>
       </c>
       <c r="E41">
-        <v>43.95</v>
+        <v>43.92</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3191,7 +3277,7 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.07432006416320801</v>
+        <v>0.07503459167480468</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3205,13 +3291,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.1454303386977048</v>
+        <v>0.1553223540143269</v>
       </c>
       <c r="D42">
-        <v>0.3477998872598012</v>
+        <v>0.3244582215944926</v>
       </c>
       <c r="E42">
-        <v>44.12</v>
+        <v>43.92</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3220,10 +3306,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.001981041783094406</v>
+        <v>0.001754867246747017</v>
       </c>
       <c r="J42">
-        <v>86.68000000000001</v>
+        <v>87.72</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3234,13 +3320,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.1448441652384231</v>
+        <v>0.1575143721287813</v>
       </c>
       <c r="D43">
-        <v>0.3552803198496501</v>
+        <v>0.3152620643377304</v>
       </c>
       <c r="E43">
-        <v>44.06</v>
+        <v>43.95</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3249,7 +3335,7 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.07115233421325684</v>
+        <v>0.07767182273864746</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3263,13 +3349,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.1488697158733034</v>
+        <v>0.1571268354489551</v>
       </c>
       <c r="D44">
-        <v>0.3400800128777822</v>
+        <v>0.316123495499293</v>
       </c>
       <c r="E44">
-        <v>44.06</v>
+        <v>43.93</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -3278,10 +3364,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.002049719595909119</v>
+        <v>0.001768666458129883</v>
       </c>
       <c r="J44">
-        <v>86.16</v>
+        <v>87.66</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3292,13 +3378,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.1472286687997298</v>
+        <v>0.1570017522549242</v>
       </c>
       <c r="D45">
-        <v>0.3314203321933746</v>
+        <v>0.3172450611988704</v>
       </c>
       <c r="E45">
-        <v>44.01</v>
+        <v>43.93</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -3307,7 +3393,7 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.07362817268371583</v>
+        <v>0.07828226776123047</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3321,13 +3407,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.1468327510647657</v>
+        <v>0.1568256391257775</v>
       </c>
       <c r="D46">
-        <v>0.3343615829944611</v>
+        <v>0.3371854921181996</v>
       </c>
       <c r="E46">
-        <v>44.14</v>
+        <v>43.95</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -3336,10 +3422,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.001756870466470718</v>
+        <v>0.001760159903764725</v>
       </c>
       <c r="J46">
-        <v>87.72</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3350,13 +3436,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.1462732621930479</v>
+        <v>0.1573439743824122</v>
       </c>
       <c r="D47">
-        <v>0.3314098666111628</v>
+        <v>0.3192217648029327</v>
       </c>
       <c r="E47">
-        <v>44.07</v>
+        <v>43.92</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3365,7 +3451,7 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.07524823570251465</v>
+        <v>0.07905171356201172</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3379,13 +3465,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.1457455894205628</v>
+        <v>0.1569480963838779</v>
       </c>
       <c r="D48">
-        <v>0.3416978021462758</v>
+        <v>0.3473365306854248</v>
       </c>
       <c r="E48">
-        <v>44.06</v>
+        <v>43.96</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -3394,28 +3480,13 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.001755468252301216</v>
+        <v>0.001796381241083145</v>
       </c>
       <c r="J48">
-        <v>87.84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>0.1458913058163674</v>
-      </c>
-      <c r="D49">
-        <v>0.3329349954922994</v>
-      </c>
-      <c r="E49">
-        <v>44.03</v>
-      </c>
+        <v>87.76000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>1</v>
       </c>
@@ -3423,28 +3494,13 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.07677967128753663</v>
+        <v>0.08085619087219238</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>0.145540641514751</v>
-      </c>
-      <c r="D50">
-        <v>0.3631652196248372</v>
-      </c>
-      <c r="E50">
-        <v>44.08</v>
-      </c>
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>2</v>
       </c>
@@ -3452,28 +3508,13 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.001756029939651489</v>
+        <v>0.001809712049365044</v>
       </c>
       <c r="J50">
-        <v>87.66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>0.1450365525556774</v>
-      </c>
-      <c r="D51">
-        <v>0.3620141049226125</v>
-      </c>
-      <c r="E51">
-        <v>44.07</v>
-      </c>
+        <v>87.73999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>1</v>
       </c>
@@ -3481,28 +3522,13 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.07738581237792969</v>
+        <v>0.0735243013381958</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>0.144885438668534</v>
-      </c>
-      <c r="D52">
-        <v>0.3456388115882874</v>
-      </c>
-      <c r="E52">
-        <v>44</v>
-      </c>
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>2</v>
       </c>
@@ -3510,28 +3536,13 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.001795529162883758</v>
+        <v>0.001751301488280296</v>
       </c>
       <c r="J52">
-        <v>87.64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>51</v>
-      </c>
-      <c r="C53">
-        <v>0.1454392732158909</v>
-      </c>
-      <c r="D53">
-        <v>0.3498587111632029</v>
-      </c>
-      <c r="E53">
-        <v>44.12</v>
-      </c>
+        <v>87.92</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>1</v>
       </c>
@@ -3539,28 +3550,13 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.07693405914306641</v>
+        <v>0.07513960189819335</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>0.1452749719828125</v>
-      </c>
-      <c r="D54">
-        <v>0.3382500608762105</v>
-      </c>
-      <c r="E54">
-        <v>44.05</v>
-      </c>
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>2</v>
       </c>
@@ -3568,28 +3564,13 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.001766269752383232</v>
+        <v>0.001745288932323456</v>
       </c>
       <c r="J54">
-        <v>87.78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>0.1452722154497131</v>
-      </c>
-      <c r="D55">
-        <v>0.344667265812556</v>
-      </c>
-      <c r="E55">
-        <v>44.09</v>
-      </c>
+        <v>88.08</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>1</v>
       </c>
@@ -3597,28 +3578,13 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.07617735786437989</v>
+        <v>0.07600052127838135</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>0.1453198885045401</v>
-      </c>
-      <c r="D56">
-        <v>0.3363683919111888</v>
-      </c>
-      <c r="E56">
-        <v>44.11</v>
-      </c>
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>2</v>
       </c>
@@ -3626,28 +3592,13 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.001840406382083893</v>
+        <v>0.001744806480407715</v>
       </c>
       <c r="J56">
-        <v>87.04000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>0.1452248897857782</v>
-      </c>
-      <c r="D57">
-        <v>0.342838188012441</v>
-      </c>
-      <c r="E57">
-        <v>44.07</v>
-      </c>
+        <v>87.90000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>1</v>
       </c>
@@ -3655,13 +3606,13 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.07898934440612793</v>
+        <v>0.07660538101196289</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>2</v>
       </c>
@@ -3669,13 +3620,13 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.001777487671375275</v>
+        <v>0.001750625187158585</v>
       </c>
       <c r="J58">
-        <v>87.68000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>87.92</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>1</v>
       </c>
@@ -3683,13 +3634,13 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.07943502998352051</v>
+        <v>0.07719376106262207</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>2</v>
       </c>
@@ -3697,13 +3648,13 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.001769528558850288</v>
+        <v>0.001752555486559868</v>
       </c>
       <c r="J60">
-        <v>87.86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>87.90000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>1</v>
       </c>
@@ -3711,13 +3662,13 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.08110052604675293</v>
+        <v>0.07768408794403076</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>2</v>
       </c>
@@ -3725,13 +3676,13 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.001821030902862549</v>
+        <v>0.001758969911932945</v>
       </c>
       <c r="J62">
-        <v>87.84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>87.88</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>1</v>
       </c>
@@ -3739,13 +3690,13 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.07912455997467041</v>
+        <v>0.07395728092193604</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>2</v>
       </c>
@@ -3753,10 +3704,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.00177437296807766</v>
+        <v>0.001748272508382797</v>
       </c>
       <c r="J64">
-        <v>87.98</v>
+        <v>87.81999999999999</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -3767,7 +3718,7 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.07910760612487792</v>
+        <v>0.0742720947265625</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3781,10 +3732,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.001802820503711701</v>
+        <v>0.001745288616418839</v>
       </c>
       <c r="J66">
-        <v>87.81999999999999</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -3795,7 +3746,7 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.0812255859375</v>
+        <v>0.07468021450042725</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3809,10 +3760,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.001799583256244659</v>
+        <v>0.001750027033686638</v>
       </c>
       <c r="J68">
-        <v>87.59999999999999</v>
+        <v>87.95999999999999</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -3823,7 +3774,7 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.08011986274719238</v>
+        <v>0.07484003047943115</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3837,10 +3788,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.00179941782951355</v>
+        <v>0.001747630521655083</v>
       </c>
       <c r="J70">
-        <v>87.68000000000001</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -3851,7 +3802,7 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.0816643871307373</v>
+        <v>0.07515065078735352</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3865,10 +3816,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.00179659785926342</v>
+        <v>0.001746151793003082</v>
       </c>
       <c r="J72">
-        <v>87.72</v>
+        <v>87.95999999999999</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -3879,7 +3830,7 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.08155409755706787</v>
+        <v>0.07542631378173828</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3893,10 +3844,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.001856904810667038</v>
+        <v>0.001747747561335564</v>
       </c>
       <c r="J74">
-        <v>87.54000000000001</v>
+        <v>87.88</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -3907,7 +3858,7 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.08008512687683106</v>
+        <v>0.07571575412750244</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3921,10 +3872,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.001773931735754013</v>
+        <v>0.001744993448257446</v>
       </c>
       <c r="J76">
-        <v>87.84</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -3935,7 +3886,7 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.08020382061004638</v>
+        <v>0.07600804061889649</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -3949,10 +3900,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.001768606039881706</v>
+        <v>0.001747961413860321</v>
       </c>
       <c r="J78">
-        <v>88.12</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -3963,7 +3914,7 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.08060133438110352</v>
+        <v>0.07617525215148926</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3977,10 +3928,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.001771846982836723</v>
+        <v>0.001746835923194885</v>
       </c>
       <c r="J80">
-        <v>87.90000000000001</v>
+        <v>87.84</v>
       </c>
     </row>
     <row r="81" spans="7:10">
@@ -3991,7 +3942,7 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.08087184581756592</v>
+        <v>0.07645100803375245</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4005,10 +3956,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.001763960248231888</v>
+        <v>0.001748735058307648</v>
       </c>
       <c r="J82">
-        <v>88.23999999999999</v>
+        <v>87.84</v>
       </c>
     </row>
     <row r="83" spans="7:10">
@@ -4019,7 +3970,7 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.0809090036392212</v>
+        <v>0.0752360071182251</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4033,10 +3984,10 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.001766763639450073</v>
+        <v>0.001745676788687706</v>
       </c>
       <c r="J84">
-        <v>88.12</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="85" spans="7:10">
@@ -4047,7 +3998,7 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.07922261009216308</v>
+        <v>0.07529884738922119</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4061,10 +4012,10 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.001744615843892097</v>
+        <v>0.001745188465714455</v>
       </c>
       <c r="J86">
-        <v>88.12</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="87" spans="7:10">
@@ -4075,7 +4026,7 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.07945609588623047</v>
+        <v>0.07536953239440917</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4089,10 +4040,10 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.001748135182261467</v>
+        <v>0.001745334821939468</v>
       </c>
       <c r="J88">
-        <v>88.02</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="89" spans="7:10">
@@ -4103,7 +4054,7 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.07979371871948242</v>
+        <v>0.075421049118042</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4117,10 +4068,10 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.001751081776618958</v>
+        <v>0.001745346623659134</v>
       </c>
       <c r="J90">
-        <v>88.28</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="91" spans="7:10">
@@ -4131,7 +4082,7 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.07985701808929443</v>
+        <v>0.07550157585144043</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4145,10 +4096,10 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.001751172035932541</v>
+        <v>0.001745476678013801</v>
       </c>
       <c r="J92">
-        <v>88.14</v>
+        <v>87.84</v>
       </c>
     </row>
     <row r="93" spans="7:10">
@@ -4159,7 +4110,7 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>0.08007005958557128</v>
+        <v>0.07554752826690674</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -4173,262 +4124,10 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.001754484280943871</v>
+        <v>0.001745445790886879</v>
       </c>
       <c r="J94">
-        <v>88.12</v>
-      </c>
-    </row>
-    <row r="95" spans="7:10">
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>47</v>
-      </c>
-      <c r="I95">
-        <v>0.08016465320587159</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="7:10">
-      <c r="G96">
-        <v>2</v>
-      </c>
-      <c r="H96">
-        <v>47</v>
-      </c>
-      <c r="I96">
-        <v>0.001752691730856895</v>
-      </c>
-      <c r="J96">
-        <v>88.06</v>
-      </c>
-    </row>
-    <row r="97" spans="7:10">
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>48</v>
-      </c>
-      <c r="I97">
-        <v>0.08027663784027099</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="7:10">
-      <c r="G98">
-        <v>2</v>
-      </c>
-      <c r="H98">
-        <v>48</v>
-      </c>
-      <c r="I98">
-        <v>0.001757250648736954</v>
-      </c>
-      <c r="J98">
-        <v>88.16</v>
-      </c>
-    </row>
-    <row r="99" spans="7:10">
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>49</v>
-      </c>
-      <c r="I99">
-        <v>0.08036313514709473</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="7:10">
-      <c r="G100">
-        <v>2</v>
-      </c>
-      <c r="H100">
-        <v>49</v>
-      </c>
-      <c r="I100">
-        <v>0.001756093427538872</v>
-      </c>
-      <c r="J100">
-        <v>88.14</v>
-      </c>
-    </row>
-    <row r="101" spans="7:10">
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>50</v>
-      </c>
-      <c r="I101">
-        <v>0.08048845577239991</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="7:10">
-      <c r="G102">
-        <v>2</v>
-      </c>
-      <c r="H102">
-        <v>50</v>
-      </c>
-      <c r="I102">
-        <v>0.001758762392401695</v>
-      </c>
-      <c r="J102">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="7:10">
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>51</v>
-      </c>
-      <c r="I103">
-        <v>0.07991993656158447</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="7:10">
-      <c r="G104">
-        <v>2</v>
-      </c>
-      <c r="H104">
-        <v>51</v>
-      </c>
-      <c r="I104">
-        <v>0.001751485943794251</v>
-      </c>
-      <c r="J104">
-        <v>88.23999999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="7:10">
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>52</v>
-      </c>
-      <c r="I105">
-        <v>0.07992865276336671</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="7:10">
-      <c r="G106">
-        <v>2</v>
-      </c>
-      <c r="H106">
-        <v>52</v>
-      </c>
-      <c r="I106">
-        <v>0.001752539941668511</v>
-      </c>
-      <c r="J106">
-        <v>88.09999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="7:10">
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>53</v>
-      </c>
-      <c r="I107">
-        <v>0.07996601963043212</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="7:10">
-      <c r="G108">
-        <v>2</v>
-      </c>
-      <c r="H108">
-        <v>53</v>
-      </c>
-      <c r="I108">
-        <v>0.00175209373831749</v>
-      </c>
-      <c r="J108">
-        <v>88.18000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="7:10">
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>54</v>
-      </c>
-      <c r="I109">
-        <v>0.07999898529052735</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="7:10">
-      <c r="G110">
-        <v>2</v>
-      </c>
-      <c r="H110">
-        <v>54</v>
-      </c>
-      <c r="I110">
-        <v>0.001752938857674599</v>
-      </c>
-      <c r="J110">
-        <v>88.22</v>
-      </c>
-    </row>
-    <row r="111" spans="7:10">
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>55</v>
-      </c>
-      <c r="I111">
-        <v>0.0800170576095581</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="7:10">
-      <c r="G112">
-        <v>2</v>
-      </c>
-      <c r="H112">
-        <v>55</v>
-      </c>
-      <c r="I112">
-        <v>0.001752817136049271</v>
-      </c>
-      <c r="J112">
-        <v>88.14</v>
+        <v>87.92</v>
       </c>
     </row>
   </sheetData>
